--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -20087,7 +20087,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="186">
   <si>
     <t>Component</t>
   </si>
@@ -20194,7 +20194,7 @@
     <t>BCR mRNA</t>
   </si>
   <si>
-    <t>Chromium Controller</t>
+    <t>BD FACSAria III</t>
   </si>
   <si>
     <t>10x Cell Ranger Human GRCh38 2024-A</t>
@@ -20224,7 +20224,7 @@
     <t>CRISPR protospacer feature barcode</t>
   </si>
   <si>
-    <t>Chromium GEM-X Single Cell 3' Chip v4</t>
+    <t>BD FACSCanto</t>
   </si>
   <si>
     <t>unknown</t>
@@ -20248,7 +20248,7 @@
     <t>gDNA</t>
   </si>
   <si>
-    <t>Chromium iX</t>
+    <t>BD FACSCanto II</t>
   </si>
   <si>
     <t>vdj_GRCh38_alts_ensembl-4.0.0</t>
@@ -20272,7 +20272,7 @@
     <t>globin-depleted RNA</t>
   </si>
   <si>
-    <t>Chromium Next GEM Chip G</t>
+    <t>BD FACSDiscover A8</t>
   </si>
   <si>
     <t>Cell Ranger v3.0.1</t>
@@ -20293,7 +20293,7 @@
     <t>intracellular protein feature barcode</t>
   </si>
   <si>
-    <t>Chromium Next GEM Chip H</t>
+    <t>BD FACSDiscover S8</t>
   </si>
   <si>
     <t>Cell Ranger v3.0.2</t>
@@ -20311,7 +20311,7 @@
     <t>multiplexing oligo</t>
   </si>
   <si>
-    <t>Chromium Next GEM Chip K</t>
+    <t>BD FACSLyric Clinical</t>
   </si>
   <si>
     <t>Cell Ranger v3.1.0</t>
@@ -20326,7 +20326,7 @@
     <t>poly(A) RNA</t>
   </si>
   <si>
-    <t>Chromium Next GEM Chip M</t>
+    <t>BD FACSMelody</t>
   </si>
   <si>
     <t>Cell Ranger v4.0.0</t>
@@ -20341,7 +20341,7 @@
     <t>rRNA-depleted RNA</t>
   </si>
   <si>
-    <t>Chromium Next GEM Chip Q</t>
+    <t>BD FACSymphony S6</t>
   </si>
   <si>
     <t>Cell Ranger v5.0.0</t>
@@ -20356,7 +20356,7 @@
     <t>surface protein feature barcode</t>
   </si>
   <si>
-    <t>Chromium X</t>
+    <t>BD LSRFortessa</t>
   </si>
   <si>
     <t>Cell Ranger v5.0.1</t>
@@ -20371,7 +20371,7 @@
     <t>TCR mRNA</t>
   </si>
   <si>
-    <t>Chromium Xo</t>
+    <t>Chromium Controller</t>
   </si>
   <si>
     <t>Cell Ranger v6.0.0</t>
@@ -20386,7 +20386,7 @@
     <t>Tn5-accessible gDNA</t>
   </si>
   <si>
-    <t>CyTOF XT</t>
+    <t>Chromium GEM-X Single Cell 3' Chip v4</t>
   </si>
   <si>
     <t>Cell Ranger v6.0.1</t>
@@ -20398,7 +20398,7 @@
     <t>CEL-Seq2</t>
   </si>
   <si>
-    <t>Fluidigm BioMark</t>
+    <t>Chromium iX</t>
   </si>
   <si>
     <t>Cell Ranger v6.0.2</t>
@@ -20410,7 +20410,7 @@
     <t>Chromium Next GEM Single Cell ATAC v1.1</t>
   </si>
   <si>
-    <t>GEM-X Flex Gene Expression Chip</t>
+    <t>Chromium Next GEM Chip G</t>
   </si>
   <si>
     <t>Cell Ranger v6.1.0</t>
@@ -20422,7 +20422,7 @@
     <t>custom DASH-treatment</t>
   </si>
   <si>
-    <t>GEM-X OCM 5' Chip</t>
+    <t>Chromium Next GEM Chip H</t>
   </si>
   <si>
     <t>Cell Ranger v6.1.1</t>
@@ -20434,7 +20434,7 @@
     <t>Fluidigm C1 HT</t>
   </si>
   <si>
-    <t>Helios Mass Cytometer</t>
+    <t>Chromium Next GEM Chip K</t>
   </si>
   <si>
     <t>Cell Ranger v6.1.2</t>
@@ -20446,7 +20446,7 @@
     <t>in-house library prep</t>
   </si>
   <si>
-    <t>Hyperion</t>
+    <t>Chromium Next GEM Chip M</t>
   </si>
   <si>
     <t>Cell Ranger v7.0.0</t>
@@ -20458,7 +20458,7 @@
     <t>NEBNext Human Immune Sequencing Kit</t>
   </si>
   <si>
-    <t>Illumina HiSeq 2500</t>
+    <t>Chromium Next GEM Chip Q</t>
   </si>
   <si>
     <t>Cell Ranger v7.0.1</t>
@@ -20470,7 +20470,7 @@
     <t>NEBNext Ultra II Directional RNA Library</t>
   </si>
   <si>
-    <t>Illumina HiSeq X Ten</t>
+    <t>Chromium X</t>
   </si>
   <si>
     <t>Cell Ranger v7.1.0</t>
@@ -20482,7 +20482,7 @@
     <t>Nextera XT</t>
   </si>
   <si>
-    <t>Illumina NextSeq 500</t>
+    <t>Chromium Xo</t>
   </si>
   <si>
     <t>Cell Ranger v7.2.0</t>
@@ -20494,7 +20494,7 @@
     <t>Nextera XT DNA</t>
   </si>
   <si>
-    <t>Illumina NovaSeq 6000</t>
+    <t>Cytek Aurora</t>
   </si>
   <si>
     <t>Cell Ranger v8.0.0</t>
@@ -20506,7 +20506,7 @@
     <t>QIAseq miRNA Library</t>
   </si>
   <si>
-    <t>Illumina NovaSeq X</t>
+    <t>Cytek Aurora Evo</t>
   </si>
   <si>
     <t>Cell Ranger v8.0.1</t>
@@ -20518,7 +20518,7 @@
     <t>SMART-Seq Human BCR with UMI</t>
   </si>
   <si>
-    <t>none</t>
+    <t>CyTOF XT</t>
   </si>
   <si>
     <t>Cell Ranger v9.0.0</t>
@@ -20530,7 +20530,7 @@
     <t>SMART-Seq Human TCR with UMI</t>
   </si>
   <si>
-    <t>Not Applicable</t>
+    <t>Fluidigm BioMark</t>
   </si>
   <si>
     <t>demuxlet</t>
@@ -20542,7 +20542,7 @@
     <t>SMART-Seq v4 Ultra Low Input RNA</t>
   </si>
   <si>
-    <t>Olink Signature Q100</t>
+    <t>GEM-X Flex Gene Expression Chip</t>
   </si>
   <si>
     <t>Space Ranger 3.0.0</t>
@@ -20554,6 +20554,9 @@
     <t>SMARTer Stranded Total RNA v2</t>
   </si>
   <si>
+    <t>GEM-X OCM 5' Chip</t>
+  </si>
+  <si>
     <t>Space Ranger 3.0.1</t>
   </si>
   <si>
@@ -20563,7 +20566,7 @@
     <t>Takara Human BCR profiling for Illumina</t>
   </si>
   <si>
-    <t>Visium CytAssist</t>
+    <t>Helios Mass Cytometer</t>
   </si>
   <si>
     <t>Space Ranger 3.1.0</t>
@@ -20575,7 +20578,7 @@
     <t>Takara Human scTCR profiling for Illumina</t>
   </si>
   <si>
-    <t>Xenium</t>
+    <t>Hyperion</t>
   </si>
   <si>
     <t>Space Ranger 3.1.1</t>
@@ -20587,6 +20590,9 @@
     <t>Takara Human TCR profiling for Illumina</t>
   </si>
   <si>
+    <t>Illumina HiSeq 2500</t>
+  </si>
+  <si>
     <t>Space Ranger 3.1.2</t>
   </si>
   <si>
@@ -20596,10 +20602,49 @@
     <t>Takara Human TCRv2 profiling for Illumina</t>
   </si>
   <si>
+    <t>Illumina HiSeq X Ten</t>
+  </si>
+  <si>
     <t>Space Ranger 3.1.3</t>
   </si>
   <si>
+    <t>Xenium</t>
+  </si>
+  <si>
     <t>TruSeq Stranded mRNA</t>
+  </si>
+  <si>
+    <t>Illumina NextSeq 500</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Olink Signature Q100</t>
+  </si>
+  <si>
+    <t>Sony MA900</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Attune CytPix</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Attune NxT</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Attune Xenith</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
   </si>
 </sst>
 </file>
@@ -48562,68 +48607,137 @@
         <v>154</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>155</v>
+    </row>
+    <row r="43">
+      <c r="I43" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>170</v>
+    <row r="44">
+      <c r="I44" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -48035,14 +48035,14 @@
       <formula>$F1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$E1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$E1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "single specimen"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$E1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -47969,14 +47969,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -47969,14 +47969,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -20679,23 +20679,13 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEAF7F9"/>
           <bgColor rgb="FFEAF7F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -47969,14 +47959,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -47959,14 +47959,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -20072,7 +20072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="173">
   <si>
     <t>Component</t>
   </si>
@@ -20179,7 +20179,7 @@
     <t>BD FACSCanto</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>modified GRCh38</t>
   </si>
   <si>
     <t>Cell Ranger ATAC v1.1.0</t>
@@ -20200,7 +20200,7 @@
     <t>BD FACSCanto II</t>
   </si>
   <si>
-    <t>vdj_GRCh38_alts_ensembl-4.0.0</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>Cell Ranger v3.0.0</t>
@@ -20219,6 +20219,9 @@
   </si>
   <si>
     <t>BD FACSDiscover A8</t>
+  </si>
+  <si>
+    <t>vdj_GRCh38_alts_ensembl-4.0.0</t>
   </si>
   <si>
     <t>Cell Ranger v3.0.1</t>
@@ -47959,14 +47962,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -47979,11 +47982,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
-      <formula1>Sheet2!$J$2:$J$5</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
+      <formula1>Sheet2!$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -48156,456 +48159,459 @@
       <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="G34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
       <c r="G35" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="G36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
       <c r="G37" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="G38" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -20072,7 +20072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="175">
   <si>
     <t>Component</t>
   </si>
@@ -20260,7 +20260,7 @@
     <t>Cell Ranger v3.1.0</t>
   </si>
   <si>
-    <t>H&amp;E</t>
+    <t>GenePS SeqFISH</t>
   </si>
   <si>
     <t>10x Chromium Next GEM Single Cell ATAC v2</t>
@@ -20275,7 +20275,7 @@
     <t>Cell Ranger v4.0.0</t>
   </si>
   <si>
-    <t>imaging mass cytometry</t>
+    <t>H&amp;E</t>
   </si>
   <si>
     <t>10x Chromium Single Cell Human BCR</t>
@@ -20290,7 +20290,7 @@
     <t>Cell Ranger v5.0.0</t>
   </si>
   <si>
-    <t>imaging mass spectrometry</t>
+    <t>imaging mass cytometry</t>
   </si>
   <si>
     <t>10x Chromium Single Cell Human TCR</t>
@@ -20305,7 +20305,7 @@
     <t>Cell Ranger v5.0.1</t>
   </si>
   <si>
-    <t>kiloplex</t>
+    <t>imaging mass spectrometry</t>
   </si>
   <si>
     <t>10x GEM-X Flex Gene Expression Human</t>
@@ -20320,7 +20320,7 @@
     <t>Cell Ranger v6.0.0</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>kiloplex</t>
   </si>
   <si>
     <t>10x GEM-X Universal 5? Gene Expression v3</t>
@@ -20335,7 +20335,7 @@
     <t>Cell Ranger v6.0.1</t>
   </si>
   <si>
-    <t>multiplexed ELISA</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
     <t>CEL-Seq2</t>
@@ -20347,7 +20347,7 @@
     <t>Cell Ranger v6.0.2</t>
   </si>
   <si>
-    <t>NULISA</t>
+    <t>multiplexed ELISA</t>
   </si>
   <si>
     <t>Chromium Next GEM Single Cell ATAC v1.1</t>
@@ -20359,7 +20359,7 @@
     <t>Cell Ranger v6.1.0</t>
   </si>
   <si>
-    <t>Olink Explore HT</t>
+    <t>NULISA</t>
   </si>
   <si>
     <t>custom DASH-treatment</t>
@@ -20371,7 +20371,7 @@
     <t>Cell Ranger v6.1.1</t>
   </si>
   <si>
-    <t>Olink Flex</t>
+    <t>Olink Explore HT</t>
   </si>
   <si>
     <t>Fluidigm C1 HT</t>
@@ -20383,7 +20383,7 @@
     <t>Cell Ranger v6.1.2</t>
   </si>
   <si>
-    <t>Olink Focus</t>
+    <t>Olink Flex</t>
   </si>
   <si>
     <t>in-house library prep</t>
@@ -20395,7 +20395,7 @@
     <t>Cell Ranger v7.0.0</t>
   </si>
   <si>
-    <t>Olink Reveal</t>
+    <t>Olink Focus</t>
   </si>
   <si>
     <t>NEBNext Human Immune Sequencing Kit</t>
@@ -20407,7 +20407,7 @@
     <t>Cell Ranger v7.0.1</t>
   </si>
   <si>
-    <t>Olink Target 48</t>
+    <t>Olink Reveal</t>
   </si>
   <si>
     <t>NEBNext Ultra II Directional RNA Library</t>
@@ -20419,7 +20419,7 @@
     <t>Cell Ranger v7.1.0</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
+    <t>Olink Target 48</t>
   </si>
   <si>
     <t>Nextera XT</t>
@@ -20431,7 +20431,7 @@
     <t>Cell Ranger v7.2.0</t>
   </si>
   <si>
-    <t>RNASeq</t>
+    <t>Olink Target 96</t>
   </si>
   <si>
     <t>Nextera XT DNA</t>
@@ -20443,7 +20443,7 @@
     <t>Cell Ranger v8.0.0</t>
   </si>
   <si>
-    <t>scRNASeq</t>
+    <t>RNASeq</t>
   </si>
   <si>
     <t>QIAseq miRNA Library</t>
@@ -20455,7 +20455,7 @@
     <t>Cell Ranger v8.0.1</t>
   </si>
   <si>
-    <t>scVDJSeq</t>
+    <t>scRNASeq</t>
   </si>
   <si>
     <t>SMART-Seq Human BCR with UMI</t>
@@ -20467,7 +20467,7 @@
     <t>Cell Ranger v9.0.0</t>
   </si>
   <si>
-    <t>serial IHC</t>
+    <t>scVDJSeq</t>
   </si>
   <si>
     <t>SMART-Seq Human TCR with UMI</t>
@@ -20479,7 +20479,7 @@
     <t>demuxlet</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>serial IHC</t>
   </si>
   <si>
     <t>SMART-Seq v4 Ultra Low Input RNA</t>
@@ -20491,7 +20491,7 @@
     <t>Space Ranger 3.0.0</t>
   </si>
   <si>
-    <t>SNP array</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>SMARTer Stranded Total RNA v2</t>
@@ -20503,7 +20503,7 @@
     <t>Space Ranger 3.0.1</t>
   </si>
   <si>
-    <t>snRNASeq</t>
+    <t>SNP array</t>
   </si>
   <si>
     <t>Takara Human BCR profiling for Illumina</t>
@@ -20515,7 +20515,7 @@
     <t>Space Ranger 3.1.0</t>
   </si>
   <si>
-    <t>SomaScan</t>
+    <t>snRNASeq</t>
   </si>
   <si>
     <t>Takara Human scTCR profiling for Illumina</t>
@@ -20527,7 +20527,7 @@
     <t>Space Ranger 3.1.1</t>
   </si>
   <si>
-    <t>VDJSeq</t>
+    <t>SomaScan</t>
   </si>
   <si>
     <t>Takara Human TCR profiling for Illumina</t>
@@ -20539,7 +20539,7 @@
     <t>Space Ranger 3.1.2</t>
   </si>
   <si>
-    <t>WES</t>
+    <t>VDJSeq</t>
   </si>
   <si>
     <t>Takara Human TCRv2 profiling for Illumina</t>
@@ -20551,7 +20551,7 @@
     <t>Space Ranger 3.1.3</t>
   </si>
   <si>
-    <t>WGS</t>
+    <t>Visium</t>
   </si>
   <si>
     <t>TruSeq Stranded mRNA</t>
@@ -20560,13 +20560,19 @@
     <t>Illumina NextSeq 500</t>
   </si>
   <si>
-    <t>Xenium</t>
+    <t>WES</t>
   </si>
   <si>
     <t>Illumina NovaSeq 6000</t>
   </si>
   <si>
+    <t>WGS</t>
+  </si>
+  <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Xenium</t>
   </si>
   <si>
     <t>none</t>
@@ -47962,14 +47968,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -48560,43 +48566,49 @@
       </c>
     </row>
     <row r="34">
-      <c r="G34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="G35" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="35">
+      <c r="B35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="36">
       <c r="G36" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
       <c r="G37" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
       <c r="G38" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
@@ -48606,12 +48618,12 @@
     </row>
     <row r="43">
       <c r="G43" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -47968,14 +47968,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.BulkRNA-seqAssayMetadataTemplate.xlsx
@@ -47968,14 +47968,14 @@
       <formula>$D1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
